--- a/data/134/DEUSTATIS/Foreign trade - EGW1 codes_historical.xlsx
+++ b/data/134/DEUSTATIS/Foreign trade - EGW1 codes_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foreign trade - EGW1 codes" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,833 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
-  <si>
-    <t>2000-01</t>
-  </si>
-  <si>
-    <t>2000-02</t>
-  </si>
-  <si>
-    <t>2000-03</t>
-  </si>
-  <si>
-    <t>2000-04</t>
-  </si>
-  <si>
-    <t>2000-05</t>
-  </si>
-  <si>
-    <t>2000-06</t>
-  </si>
-  <si>
-    <t>2000-07</t>
-  </si>
-  <si>
-    <t>2000-08</t>
-  </si>
-  <si>
-    <t>2000-09</t>
-  </si>
-  <si>
-    <t>2000-10</t>
-  </si>
-  <si>
-    <t>2000-11</t>
-  </si>
-  <si>
-    <t>2000-12</t>
-  </si>
-  <si>
-    <t>2001-01</t>
-  </si>
-  <si>
-    <t>2001-02</t>
-  </si>
-  <si>
-    <t>2001-03</t>
-  </si>
-  <si>
-    <t>2001-04</t>
-  </si>
-  <si>
-    <t>2001-05</t>
-  </si>
-  <si>
-    <t>2001-06</t>
-  </si>
-  <si>
-    <t>2001-07</t>
-  </si>
-  <si>
-    <t>2001-08</t>
-  </si>
-  <si>
-    <t>2001-09</t>
-  </si>
-  <si>
-    <t>2001-10</t>
-  </si>
-  <si>
-    <t>2001-11</t>
-  </si>
-  <si>
-    <t>2001-12</t>
-  </si>
-  <si>
-    <t>2002-01</t>
-  </si>
-  <si>
-    <t>2002-02</t>
-  </si>
-  <si>
-    <t>2002-03</t>
-  </si>
-  <si>
-    <t>2002-04</t>
-  </si>
-  <si>
-    <t>2002-05</t>
-  </si>
-  <si>
-    <t>2002-06</t>
-  </si>
-  <si>
-    <t>2002-07</t>
-  </si>
-  <si>
-    <t>2002-08</t>
-  </si>
-  <si>
-    <t>2002-09</t>
-  </si>
-  <si>
-    <t>2002-10</t>
-  </si>
-  <si>
-    <t>2002-11</t>
-  </si>
-  <si>
-    <t>2002-12</t>
-  </si>
-  <si>
-    <t>2003-01</t>
-  </si>
-  <si>
-    <t>2003-02</t>
-  </si>
-  <si>
-    <t>2003-03</t>
-  </si>
-  <si>
-    <t>2003-04</t>
-  </si>
-  <si>
-    <t>2003-05</t>
-  </si>
-  <si>
-    <t>2003-06</t>
-  </si>
-  <si>
-    <t>2003-07</t>
-  </si>
-  <si>
-    <t>2003-08</t>
-  </si>
-  <si>
-    <t>2003-09</t>
-  </si>
-  <si>
-    <t>2003-10</t>
-  </si>
-  <si>
-    <t>2003-11</t>
-  </si>
-  <si>
-    <t>2003-12</t>
-  </si>
-  <si>
-    <t>2004-01</t>
-  </si>
-  <si>
-    <t>2004-02</t>
-  </si>
-  <si>
-    <t>2004-03</t>
-  </si>
-  <si>
-    <t>2004-04</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2004-06</t>
-  </si>
-  <si>
-    <t>2004-07</t>
-  </si>
-  <si>
-    <t>2004-08</t>
-  </si>
-  <si>
-    <t>2004-09</t>
-  </si>
-  <si>
-    <t>2004-10</t>
-  </si>
-  <si>
-    <t>2004-11</t>
-  </si>
-  <si>
-    <t>2004-12</t>
-  </si>
-  <si>
-    <t>2005-01</t>
-  </si>
-  <si>
-    <t>2005-02</t>
-  </si>
-  <si>
-    <t>2005-03</t>
-  </si>
-  <si>
-    <t>2005-04</t>
-  </si>
-  <si>
-    <t>2005-05</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2005-07</t>
-  </si>
-  <si>
-    <t>2005-08</t>
-  </si>
-  <si>
-    <t>2005-09</t>
-  </si>
-  <si>
-    <t>2005-10</t>
-  </si>
-  <si>
-    <t>2005-11</t>
-  </si>
-  <si>
-    <t>2005-12</t>
-  </si>
-  <si>
-    <t>2006-01</t>
-  </si>
-  <si>
-    <t>2006-02</t>
-  </si>
-  <si>
-    <t>2006-03</t>
-  </si>
-  <si>
-    <t>2006-04</t>
-  </si>
-  <si>
-    <t>2006-05</t>
-  </si>
-  <si>
-    <t>2006-06</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2006-08</t>
-  </si>
-  <si>
-    <t>2006-09</t>
-  </si>
-  <si>
-    <t>2006-10</t>
-  </si>
-  <si>
-    <t>2006-11</t>
-  </si>
-  <si>
-    <t>2006-12</t>
-  </si>
-  <si>
-    <t>2007-01</t>
-  </si>
-  <si>
-    <t>2007-02</t>
-  </si>
-  <si>
-    <t>2007-03</t>
-  </si>
-  <si>
-    <t>2007-04</t>
-  </si>
-  <si>
-    <t>2007-05</t>
-  </si>
-  <si>
-    <t>2007-06</t>
-  </si>
-  <si>
-    <t>2007-07</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2007-09</t>
-  </si>
-  <si>
-    <t>2007-10</t>
-  </si>
-  <si>
-    <t>2007-11</t>
-  </si>
-  <si>
-    <t>2007-12</t>
-  </si>
-  <si>
-    <t>2008-01</t>
-  </si>
-  <si>
-    <t>2008-02</t>
-  </si>
-  <si>
-    <t>2008-03</t>
-  </si>
-  <si>
-    <t>2008-04</t>
-  </si>
-  <si>
-    <t>2008-05</t>
-  </si>
-  <si>
-    <t>2008-06</t>
-  </si>
-  <si>
-    <t>2008-07</t>
-  </si>
-  <si>
-    <t>2008-08</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2008-10</t>
-  </si>
-  <si>
-    <t>2008-11</t>
-  </si>
-  <si>
-    <t>2008-12</t>
-  </si>
-  <si>
-    <t>2009-01</t>
-  </si>
-  <si>
-    <t>2009-02</t>
-  </si>
-  <si>
-    <t>2009-03</t>
-  </si>
-  <si>
-    <t>2009-04</t>
-  </si>
-  <si>
-    <t>2009-05</t>
-  </si>
-  <si>
-    <t>2009-06</t>
-  </si>
-  <si>
-    <t>2009-07</t>
-  </si>
-  <si>
-    <t>2009-08</t>
-  </si>
-  <si>
-    <t>2009-09</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2009-11</t>
-  </si>
-  <si>
-    <t>2009-12</t>
-  </si>
-  <si>
-    <t>2010-01</t>
-  </si>
-  <si>
-    <t>2010-02</t>
-  </si>
-  <si>
-    <t>2010-03</t>
-  </si>
-  <si>
-    <t>2010-04</t>
-  </si>
-  <si>
-    <t>2010-05</t>
-  </si>
-  <si>
-    <t>2010-06</t>
-  </si>
-  <si>
-    <t>2010-07</t>
-  </si>
-  <si>
-    <t>2010-08</t>
-  </si>
-  <si>
-    <t>2010-09</t>
-  </si>
-  <si>
-    <t>2010-10</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2010-12</t>
-  </si>
-  <si>
-    <t>2011-01</t>
-  </si>
-  <si>
-    <t>2011-02</t>
-  </si>
-  <si>
-    <t>2011-03</t>
-  </si>
-  <si>
-    <t>2011-04</t>
-  </si>
-  <si>
-    <t>2011-05</t>
-  </si>
-  <si>
-    <t>2011-06</t>
-  </si>
-  <si>
-    <t>2011-07</t>
-  </si>
-  <si>
-    <t>2011-08</t>
-  </si>
-  <si>
-    <t>2011-09</t>
-  </si>
-  <si>
-    <t>2011-10</t>
-  </si>
-  <si>
-    <t>2011-11</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2012-01</t>
-  </si>
-  <si>
-    <t>2012-02</t>
-  </si>
-  <si>
-    <t>2012-03</t>
-  </si>
-  <si>
-    <t>2012-04</t>
-  </si>
-  <si>
-    <t>2012-05</t>
-  </si>
-  <si>
-    <t>2012-06</t>
-  </si>
-  <si>
-    <t>2012-07</t>
-  </si>
-  <si>
-    <t>2012-08</t>
-  </si>
-  <si>
-    <t>2012-09</t>
-  </si>
-  <si>
-    <t>2012-10</t>
-  </si>
-  <si>
-    <t>2012-11</t>
-  </si>
-  <si>
-    <t>2012-12</t>
-  </si>
-  <si>
-    <t>2013-01</t>
-  </si>
-  <si>
-    <t>2013-02</t>
-  </si>
-  <si>
-    <t>2013-03</t>
-  </si>
-  <si>
-    <t>2013-04</t>
-  </si>
-  <si>
-    <t>2013-05</t>
-  </si>
-  <si>
-    <t>2013-06</t>
-  </si>
-  <si>
-    <t>2013-07</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t>2013-09</t>
-  </si>
-  <si>
-    <t>2013-10</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2014-01</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>2014-03</t>
-  </si>
-  <si>
-    <t>2014-04</t>
-  </si>
-  <si>
-    <t>2014-05</t>
-  </si>
-  <si>
-    <t>2014-06</t>
-  </si>
-  <si>
-    <t>2014-07</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2014-09</t>
-  </si>
-  <si>
-    <t>2014-10</t>
-  </si>
-  <si>
-    <t>2014-11</t>
-  </si>
-  <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>2015-02</t>
-  </si>
-  <si>
-    <t>2015-03</t>
-  </si>
-  <si>
-    <t>2015-04</t>
-  </si>
-  <si>
-    <t>2015-05</t>
-  </si>
-  <si>
-    <t>2015-06</t>
-  </si>
-  <si>
-    <t>2015-07</t>
-  </si>
-  <si>
-    <t>2015-08</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>2015-10</t>
-  </si>
-  <si>
-    <t>2015-11</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2016-02</t>
-  </si>
-  <si>
-    <t>2016-03</t>
-  </si>
-  <si>
-    <t>2016-04</t>
-  </si>
-  <si>
-    <t>2016-05</t>
-  </si>
-  <si>
-    <t>2016-06</t>
-  </si>
-  <si>
-    <t>2016-07</t>
-  </si>
-  <si>
-    <t>2016-08</t>
-  </si>
-  <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-01</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-08</t>
-  </si>
-  <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-01</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-10</t>
-  </si>
-  <si>
-    <t>2021-11</t>
-  </si>
-  <si>
-    <t>2021-12</t>
-  </si>
-  <si>
-    <t>EGW1-4 Food//Exports: Value</t>
-  </si>
-  <si>
-    <t>EGW5 Raw materials//Exports: Value</t>
-  </si>
-  <si>
-    <t>EGW5-8 Industrial products//Exports: Value</t>
-  </si>
-  <si>
-    <t>EGW6 Semi-finished goods//Exports: Value</t>
-  </si>
-  <si>
-    <t>EGW7-8 Finished goods//Exports: Value</t>
-  </si>
-  <si>
-    <t>EGW1-4 Food//Imports: Value</t>
-  </si>
-  <si>
-    <t>EGW5 Raw materials//Imports: Value</t>
-  </si>
-  <si>
-    <t>EGW5-8 Industrial products//Imports: Value</t>
-  </si>
-  <si>
-    <t>EGW6 Semi-finished goods//Imports: Value</t>
-  </si>
-  <si>
-    <t>EGW7-8 Finished goods//Imports: Value</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1193,803 +366,1333 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:265">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="HK1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="HL1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HU1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HV1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="HW1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HX1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="HY1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="HZ1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="IA1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IB1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="IC1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="ID1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="IE1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="IF1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="IG1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="IH1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="II1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="IJ1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="IK1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="IL1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="IM1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="IN1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="IO1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="IP1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="IQ1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="IR1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2000-01</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2000-02</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2000-03</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2000-04</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2000-05</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2000-06</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2000-07</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2000-08</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2000-09</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2000-10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2000-11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2000-12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2001-01</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2001-02</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2001-03</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2001-04</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2001-05</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2001-06</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2001-07</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2001-08</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2001-09</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2001-10</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2001-11</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2001-12</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2002-01</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2002-02</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2002-03</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2002-04</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2002-05</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2002-06</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2002-07</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2002-08</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2002-09</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2002-10</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-11</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2002-12</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2003-01</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2003-02</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2003-03</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2003-04</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2003-05</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2003-06</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2003-07</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2003-08</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2003-09</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2003-10</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2003-11</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2003-12</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2004-01</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2004-02</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-03</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2004-04</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2004-05</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2004-06</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2004-07</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2004-08</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2004-09</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2004-10</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2004-11</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2004-12</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-01</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2005-02</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2005-03</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2005-04</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2005-05</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2005-06</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2005-07</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-08</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2005-09</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2005-10</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2005-11</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2005-12</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2006-01</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2006-02</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2006-03</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2006-04</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-05</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2006-06</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2006-08</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2006-09</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2006-10</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2006-11</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2006-12</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2007-01</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2007-02</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-03</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2007-04</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2007-05</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2007-06</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2007-07</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2007-09</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-10</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2007-11</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2007-12</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2008-01</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2008-02</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2008-03</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2008-04</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2008-05</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2008-06</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-07</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2008-08</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2008-09</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2008-10</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2008-11</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2008-12</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2009-01</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2009-02</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2009-03</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2009-04</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-05</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2009-06</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2009-07</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2009-08</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2009-09</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2009-10</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2009-11</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-12</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2010-01</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2010-02</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2010-03</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2010-04</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2010-05</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2010-06</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2010-07</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2010-08</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-09</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2010-10</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2010-11</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2010-12</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2011-01</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2011-02</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2011-03</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2011-04</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2011-05</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2011-06</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-07</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2011-08</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2011-09</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2011-10</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2011-11</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2011-12</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2012-01</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-02</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2012-03</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2012-04</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2012-05</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2012-06</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2012-07</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2012-08</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2012-09</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2012-10</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-11</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2012-12</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2013-01</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2013-03</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2013-04</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2013-06</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2013-07</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2013-08</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-09</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>2013-10</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>2013-11</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>2013-12</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>2014-01</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>2014-03</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-04</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>2014-06</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>2014-07</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>2014-08</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>2014-09</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>2014-10</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>2014-11</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>2014-12</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-01</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>2015-02</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>2015-03</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>2015-04</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>2015-05</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>2015-06</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>2015-07</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>2015-08</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>2015-09</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-11</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>2015-12</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>2016-01</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>2016-03</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>2016-04</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-06</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>2016-07</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>2016-08</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>2016-09</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>2016-11</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>2017-01</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-03</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>2017-04</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>2017-07</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>2017-08</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>2017-09</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>2017-11</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>2017-12</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-01</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>2018-03</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>2018-07</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-08</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>2018-09</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>2018-11</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>2018-12</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>2019-01</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>2019-08</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>2019-09</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>2020-01</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:265">
-      <c r="A2" s="1" t="s">
-        <v>264</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>EGW1-4 Food//Exports: Value</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>2028</v>
@@ -2777,12 +2480,14 @@
       <c r="JC2" t="n">
         <v>6772.178</v>
       </c>
-      <c r="JD2" t="s"/>
-      <c r="JE2" t="s"/>
+      <c r="JD2" t="inlineStr"/>
+      <c r="JE2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:265">
-      <c r="A3" s="1" t="s">
-        <v>265</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>EGW5 Raw materials//Exports: Value</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>471</v>
@@ -3570,12 +3275,14 @@
       <c r="JC3" t="n">
         <v>1955.841</v>
       </c>
-      <c r="JD3" t="s"/>
-      <c r="JE3" t="s"/>
+      <c r="JD3" t="inlineStr"/>
+      <c r="JE3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:265">
-      <c r="A4" s="1" t="s">
-        <v>266</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>EGW5-8 Industrial products//Exports: Value</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>39099</v>
@@ -4363,12 +4070,14 @@
       <c r="JC4" t="n">
         <v>109857.216</v>
       </c>
-      <c r="JD4" t="s"/>
-      <c r="JE4" t="s"/>
+      <c r="JD4" t="inlineStr"/>
+      <c r="JE4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:265">
-      <c r="A5" s="1" t="s">
-        <v>267</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>EGW6 Semi-finished goods//Exports: Value</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>1786</v>
@@ -5156,12 +4865,14 @@
       <c r="JC5" t="n">
         <v>7239.135</v>
       </c>
-      <c r="JD5" t="s"/>
-      <c r="JE5" t="s"/>
+      <c r="JD5" t="inlineStr"/>
+      <c r="JE5" t="inlineStr"/>
     </row>
-    <row r="6" spans="1:265">
-      <c r="A6" s="1" t="s">
-        <v>268</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>EGW7-8 Finished goods//Exports: Value</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>36843</v>
@@ -5949,12 +5660,14 @@
       <c r="JC6" t="n">
         <v>100662.24</v>
       </c>
-      <c r="JD6" t="s"/>
-      <c r="JE6" t="s"/>
+      <c r="JD6" t="inlineStr"/>
+      <c r="JE6" t="inlineStr"/>
     </row>
-    <row r="7" spans="1:265">
-      <c r="A7" s="1" t="s">
-        <v>269</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>EGW1-4 Food//Imports: Value</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>3456</v>
@@ -6742,12 +6455,14 @@
       <c r="JC7" t="n">
         <v>7684.589</v>
       </c>
-      <c r="JD7" t="s"/>
-      <c r="JE7" t="s"/>
+      <c r="JD7" t="inlineStr"/>
+      <c r="JE7" t="inlineStr"/>
     </row>
-    <row r="8" spans="1:265">
-      <c r="A8" s="1" t="s">
-        <v>270</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>EGW5 Raw materials//Imports: Value</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>3130</v>
@@ -7535,12 +7250,14 @@
       <c r="JC8" t="n">
         <v>10250.544</v>
       </c>
-      <c r="JD8" t="s"/>
-      <c r="JE8" t="s"/>
+      <c r="JD8" t="inlineStr"/>
+      <c r="JE8" t="inlineStr"/>
     </row>
-    <row r="9" spans="1:265">
-      <c r="A9" s="1" t="s">
-        <v>271</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>EGW5-8 Industrial products//Imports: Value</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>33841</v>
@@ -8328,12 +8045,14 @@
       <c r="JC9" t="n">
         <v>92408.683</v>
       </c>
-      <c r="JD9" t="s"/>
-      <c r="JE9" t="s"/>
+      <c r="JD9" t="inlineStr"/>
+      <c r="JE9" t="inlineStr"/>
     </row>
-    <row r="10" spans="1:265">
-      <c r="A10" s="1" t="s">
-        <v>272</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>EGW6 Semi-finished goods//Imports: Value</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>2661</v>
@@ -9121,12 +8840,14 @@
       <c r="JC10" t="n">
         <v>8046.583</v>
       </c>
-      <c r="JD10" t="s"/>
-      <c r="JE10" t="s"/>
+      <c r="JD10" t="inlineStr"/>
+      <c r="JE10" t="inlineStr"/>
     </row>
-    <row r="11" spans="1:265">
-      <c r="A11" s="1" t="s">
-        <v>273</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>EGW7-8 Finished goods//Imports: Value</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>28050</v>
@@ -9914,8 +9635,8 @@
       <c r="JC11" t="n">
         <v>74111.557</v>
       </c>
-      <c r="JD11" t="s"/>
-      <c r="JE11" t="s"/>
+      <c r="JD11" t="inlineStr"/>
+      <c r="JE11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/134/DEUSTATIS/Foreign trade - EGW1 codes_historical.xlsx
+++ b/data/134/DEUSTATIS/Foreign trade - EGW1 codes_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JE11"/>
+  <dimension ref="A1:JQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1687,6 +1687,66 @@
           <t>2021-12</t>
         </is>
       </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2460,28 +2520,46 @@
         <v>6901.816</v>
       </c>
       <c r="IW2" t="n">
-        <v>6064.483</v>
+        <v>6078.756</v>
       </c>
       <c r="IX2" t="n">
-        <v>6404.95</v>
+        <v>6429.637</v>
       </c>
       <c r="IY2" t="n">
-        <v>6378.278</v>
+        <v>6432.254</v>
       </c>
       <c r="IZ2" t="n">
-        <v>6360.029</v>
+        <v>6427.688</v>
       </c>
       <c r="JA2" t="n">
-        <v>6327.449</v>
+        <v>6394.985</v>
       </c>
       <c r="JB2" t="n">
-        <v>6601.251</v>
+        <v>6725.1</v>
       </c>
       <c r="JC2" t="n">
-        <v>6772.178</v>
-      </c>
-      <c r="JD2" t="inlineStr"/>
-      <c r="JE2" t="inlineStr"/>
+        <v>6881.172</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>6924.417</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>6526.28</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>5879.818</v>
+      </c>
+      <c r="JG2" t="inlineStr"/>
+      <c r="JH2" t="inlineStr"/>
+      <c r="JI2" t="inlineStr"/>
+      <c r="JJ2" t="inlineStr"/>
+      <c r="JK2" t="inlineStr"/>
+      <c r="JL2" t="inlineStr"/>
+      <c r="JM2" t="inlineStr"/>
+      <c r="JN2" t="inlineStr"/>
+      <c r="JO2" t="inlineStr"/>
+      <c r="JP2" t="inlineStr"/>
+      <c r="JQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3255,28 +3333,46 @@
         <v>1444.873</v>
       </c>
       <c r="IW3" t="n">
-        <v>1263.392</v>
+        <v>1267.306</v>
       </c>
       <c r="IX3" t="n">
-        <v>1324.186</v>
+        <v>1327.92</v>
       </c>
       <c r="IY3" t="n">
-        <v>1383.791</v>
+        <v>1394.853</v>
       </c>
       <c r="IZ3" t="n">
-        <v>1609.485</v>
+        <v>1624.176</v>
       </c>
       <c r="JA3" t="n">
-        <v>1657.107</v>
+        <v>1674.657</v>
       </c>
       <c r="JB3" t="n">
-        <v>1792.541</v>
+        <v>1845.347</v>
       </c>
       <c r="JC3" t="n">
-        <v>1955.841</v>
-      </c>
-      <c r="JD3" t="inlineStr"/>
-      <c r="JE3" t="inlineStr"/>
+        <v>1996.146</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>1893.843</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>2392.919</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>1980.273</v>
+      </c>
+      <c r="JG3" t="inlineStr"/>
+      <c r="JH3" t="inlineStr"/>
+      <c r="JI3" t="inlineStr"/>
+      <c r="JJ3" t="inlineStr"/>
+      <c r="JK3" t="inlineStr"/>
+      <c r="JL3" t="inlineStr"/>
+      <c r="JM3" t="inlineStr"/>
+      <c r="JN3" t="inlineStr"/>
+      <c r="JO3" t="inlineStr"/>
+      <c r="JP3" t="inlineStr"/>
+      <c r="JQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4050,28 +4146,46 @@
         <v>118393.398</v>
       </c>
       <c r="IW4" t="n">
-        <v>104282.527</v>
+        <v>104402.522</v>
       </c>
       <c r="IX4" t="n">
-        <v>101196.469</v>
+        <v>101452.991</v>
       </c>
       <c r="IY4" t="n">
-        <v>109729.313</v>
+        <v>110279.151</v>
       </c>
       <c r="IZ4" t="n">
-        <v>106072.27</v>
+        <v>106710.666</v>
       </c>
       <c r="JA4" t="n">
-        <v>95133.28200000001</v>
+        <v>95923.639</v>
       </c>
       <c r="JB4" t="n">
-        <v>106717.004</v>
+        <v>108679.676</v>
       </c>
       <c r="JC4" t="n">
-        <v>109857.216</v>
-      </c>
-      <c r="JD4" t="inlineStr"/>
-      <c r="JE4" t="inlineStr"/>
+        <v>111296.021</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>115198.536</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>105911.16</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>99380.317</v>
+      </c>
+      <c r="JG4" t="inlineStr"/>
+      <c r="JH4" t="inlineStr"/>
+      <c r="JI4" t="inlineStr"/>
+      <c r="JJ4" t="inlineStr"/>
+      <c r="JK4" t="inlineStr"/>
+      <c r="JL4" t="inlineStr"/>
+      <c r="JM4" t="inlineStr"/>
+      <c r="JN4" t="inlineStr"/>
+      <c r="JO4" t="inlineStr"/>
+      <c r="JP4" t="inlineStr"/>
+      <c r="JQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4845,28 +4959,46 @@
         <v>6651.306</v>
       </c>
       <c r="IW5" t="n">
-        <v>6202.86</v>
+        <v>6206.702</v>
       </c>
       <c r="IX5" t="n">
-        <v>6317.62</v>
+        <v>6325.991</v>
       </c>
       <c r="IY5" t="n">
-        <v>6594.012</v>
+        <v>6624.466</v>
       </c>
       <c r="IZ5" t="n">
-        <v>6365.363</v>
+        <v>6410.018</v>
       </c>
       <c r="JA5" t="n">
-        <v>6184.054</v>
+        <v>6253.137</v>
       </c>
       <c r="JB5" t="n">
-        <v>6865.509</v>
+        <v>7066.934</v>
       </c>
       <c r="JC5" t="n">
-        <v>7239.135</v>
-      </c>
-      <c r="JD5" t="inlineStr"/>
-      <c r="JE5" t="inlineStr"/>
+        <v>7398.775</v>
+      </c>
+      <c r="JD5" t="n">
+        <v>7831.112</v>
+      </c>
+      <c r="JE5" t="n">
+        <v>7483.099</v>
+      </c>
+      <c r="JF5" t="n">
+        <v>7433.416</v>
+      </c>
+      <c r="JG5" t="inlineStr"/>
+      <c r="JH5" t="inlineStr"/>
+      <c r="JI5" t="inlineStr"/>
+      <c r="JJ5" t="inlineStr"/>
+      <c r="JK5" t="inlineStr"/>
+      <c r="JL5" t="inlineStr"/>
+      <c r="JM5" t="inlineStr"/>
+      <c r="JN5" t="inlineStr"/>
+      <c r="JO5" t="inlineStr"/>
+      <c r="JP5" t="inlineStr"/>
+      <c r="JQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5640,28 +5772,46 @@
         <v>110297.219</v>
       </c>
       <c r="IW6" t="n">
-        <v>96816.27499999999</v>
+        <v>96928.514</v>
       </c>
       <c r="IX6" t="n">
-        <v>93554.663</v>
+        <v>93799.08100000001</v>
       </c>
       <c r="IY6" t="n">
-        <v>101751.51</v>
+        <v>102259.832</v>
       </c>
       <c r="IZ6" t="n">
-        <v>98097.42200000001</v>
+        <v>98676.47199999999</v>
       </c>
       <c r="JA6" t="n">
-        <v>87292.121</v>
+        <v>87995.845</v>
       </c>
       <c r="JB6" t="n">
-        <v>98058.954</v>
+        <v>99767.395</v>
       </c>
       <c r="JC6" t="n">
-        <v>100662.24</v>
-      </c>
-      <c r="JD6" t="inlineStr"/>
-      <c r="JE6" t="inlineStr"/>
+        <v>101901.1</v>
+      </c>
+      <c r="JD6" t="n">
+        <v>105473.581</v>
+      </c>
+      <c r="JE6" t="n">
+        <v>96035.141</v>
+      </c>
+      <c r="JF6" t="n">
+        <v>89966.629</v>
+      </c>
+      <c r="JG6" t="inlineStr"/>
+      <c r="JH6" t="inlineStr"/>
+      <c r="JI6" t="inlineStr"/>
+      <c r="JJ6" t="inlineStr"/>
+      <c r="JK6" t="inlineStr"/>
+      <c r="JL6" t="inlineStr"/>
+      <c r="JM6" t="inlineStr"/>
+      <c r="JN6" t="inlineStr"/>
+      <c r="JO6" t="inlineStr"/>
+      <c r="JP6" t="inlineStr"/>
+      <c r="JQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -6435,28 +6585,46 @@
         <v>8547.427</v>
       </c>
       <c r="IW7" t="n">
-        <v>7703.336</v>
+        <v>7715.447</v>
       </c>
       <c r="IX7" t="n">
-        <v>7848.19</v>
+        <v>7886.453</v>
       </c>
       <c r="IY7" t="n">
-        <v>7776.845</v>
+        <v>7867.414</v>
       </c>
       <c r="IZ7" t="n">
-        <v>7315.484</v>
+        <v>7479.413</v>
       </c>
       <c r="JA7" t="n">
-        <v>7313.405</v>
+        <v>7478.118</v>
       </c>
       <c r="JB7" t="n">
-        <v>7442.888</v>
+        <v>7730.797</v>
       </c>
       <c r="JC7" t="n">
-        <v>7684.589</v>
-      </c>
-      <c r="JD7" t="inlineStr"/>
-      <c r="JE7" t="inlineStr"/>
+        <v>7916.549</v>
+      </c>
+      <c r="JD7" t="n">
+        <v>8272.066999999999</v>
+      </c>
+      <c r="JE7" t="n">
+        <v>8284.909</v>
+      </c>
+      <c r="JF7" t="n">
+        <v>7098.866</v>
+      </c>
+      <c r="JG7" t="inlineStr"/>
+      <c r="JH7" t="inlineStr"/>
+      <c r="JI7" t="inlineStr"/>
+      <c r="JJ7" t="inlineStr"/>
+      <c r="JK7" t="inlineStr"/>
+      <c r="JL7" t="inlineStr"/>
+      <c r="JM7" t="inlineStr"/>
+      <c r="JN7" t="inlineStr"/>
+      <c r="JO7" t="inlineStr"/>
+      <c r="JP7" t="inlineStr"/>
+      <c r="JQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -7230,28 +7398,46 @@
         <v>6871.984</v>
       </c>
       <c r="IW8" t="n">
-        <v>6393.303</v>
+        <v>6394.352</v>
       </c>
       <c r="IX8" t="n">
-        <v>6677.9</v>
+        <v>6869.909</v>
       </c>
       <c r="IY8" t="n">
-        <v>7344.573</v>
+        <v>7135.014</v>
       </c>
       <c r="IZ8" t="n">
-        <v>7360.41</v>
+        <v>7323.292</v>
       </c>
       <c r="JA8" t="n">
-        <v>7697.252</v>
+        <v>7704.759</v>
       </c>
       <c r="JB8" t="n">
-        <v>8305.695</v>
+        <v>8336.861999999999</v>
       </c>
       <c r="JC8" t="n">
-        <v>10250.544</v>
-      </c>
-      <c r="JD8" t="inlineStr"/>
-      <c r="JE8" t="inlineStr"/>
+        <v>10381.946</v>
+      </c>
+      <c r="JD8" t="n">
+        <v>10899.286</v>
+      </c>
+      <c r="JE8" t="n">
+        <v>12853.727</v>
+      </c>
+      <c r="JF8" t="n">
+        <v>13740.652</v>
+      </c>
+      <c r="JG8" t="inlineStr"/>
+      <c r="JH8" t="inlineStr"/>
+      <c r="JI8" t="inlineStr"/>
+      <c r="JJ8" t="inlineStr"/>
+      <c r="JK8" t="inlineStr"/>
+      <c r="JL8" t="inlineStr"/>
+      <c r="JM8" t="inlineStr"/>
+      <c r="JN8" t="inlineStr"/>
+      <c r="JO8" t="inlineStr"/>
+      <c r="JP8" t="inlineStr"/>
+      <c r="JQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -8025,28 +8211,46 @@
         <v>93550.63800000001</v>
       </c>
       <c r="IW9" t="n">
-        <v>84198.986</v>
+        <v>84440.803</v>
       </c>
       <c r="IX9" t="n">
-        <v>84062.673</v>
+        <v>84626.787</v>
       </c>
       <c r="IY9" t="n">
-        <v>89033.159</v>
+        <v>89503.30499999999</v>
       </c>
       <c r="IZ9" t="n">
-        <v>83923.667</v>
+        <v>84818.538</v>
       </c>
       <c r="JA9" t="n">
-        <v>79822.758</v>
+        <v>80981.796</v>
       </c>
       <c r="JB9" t="n">
-        <v>86443.77099999999</v>
+        <v>88559.644</v>
       </c>
       <c r="JC9" t="n">
-        <v>92408.683</v>
-      </c>
-      <c r="JD9" t="inlineStr"/>
-      <c r="JE9" t="inlineStr"/>
+        <v>94290.064</v>
+      </c>
+      <c r="JD9" t="n">
+        <v>98263.75900000001</v>
+      </c>
+      <c r="JE9" t="n">
+        <v>93353.265</v>
+      </c>
+      <c r="JF9" t="n">
+        <v>91231.274</v>
+      </c>
+      <c r="JG9" t="inlineStr"/>
+      <c r="JH9" t="inlineStr"/>
+      <c r="JI9" t="inlineStr"/>
+      <c r="JJ9" t="inlineStr"/>
+      <c r="JK9" t="inlineStr"/>
+      <c r="JL9" t="inlineStr"/>
+      <c r="JM9" t="inlineStr"/>
+      <c r="JN9" t="inlineStr"/>
+      <c r="JO9" t="inlineStr"/>
+      <c r="JP9" t="inlineStr"/>
+      <c r="JQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -8820,28 +9024,46 @@
         <v>7881.597</v>
       </c>
       <c r="IW10" t="n">
-        <v>8103.89</v>
+        <v>8105.06</v>
       </c>
       <c r="IX10" t="n">
-        <v>8582.227000000001</v>
+        <v>8593.316999999999</v>
       </c>
       <c r="IY10" t="n">
-        <v>8281.285</v>
+        <v>8322.909</v>
       </c>
       <c r="IZ10" t="n">
-        <v>8278.919</v>
+        <v>8326.118</v>
       </c>
       <c r="JA10" t="n">
-        <v>8066.253</v>
+        <v>8122.1</v>
       </c>
       <c r="JB10" t="n">
-        <v>7886.022</v>
+        <v>8001.097</v>
       </c>
       <c r="JC10" t="n">
-        <v>8046.583</v>
-      </c>
-      <c r="JD10" t="inlineStr"/>
-      <c r="JE10" t="inlineStr"/>
+        <v>8207.732</v>
+      </c>
+      <c r="JD10" t="n">
+        <v>8737.174999999999</v>
+      </c>
+      <c r="JE10" t="n">
+        <v>8263.199000000001</v>
+      </c>
+      <c r="JF10" t="n">
+        <v>7732.707</v>
+      </c>
+      <c r="JG10" t="inlineStr"/>
+      <c r="JH10" t="inlineStr"/>
+      <c r="JI10" t="inlineStr"/>
+      <c r="JJ10" t="inlineStr"/>
+      <c r="JK10" t="inlineStr"/>
+      <c r="JL10" t="inlineStr"/>
+      <c r="JM10" t="inlineStr"/>
+      <c r="JN10" t="inlineStr"/>
+      <c r="JO10" t="inlineStr"/>
+      <c r="JP10" t="inlineStr"/>
+      <c r="JQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -9615,28 +9837,46 @@
         <v>78797.058</v>
       </c>
       <c r="IW11" t="n">
-        <v>69701.79300000001</v>
+        <v>69941.391</v>
       </c>
       <c r="IX11" t="n">
-        <v>68802.54700000001</v>
+        <v>69163.561</v>
       </c>
       <c r="IY11" t="n">
-        <v>73407.30100000001</v>
+        <v>74045.382</v>
       </c>
       <c r="IZ11" t="n">
-        <v>68284.338</v>
+        <v>69169.128</v>
       </c>
       <c r="JA11" t="n">
-        <v>64059.253</v>
+        <v>65154.937</v>
       </c>
       <c r="JB11" t="n">
-        <v>70252.05499999999</v>
+        <v>72221.68399999999</v>
       </c>
       <c r="JC11" t="n">
-        <v>74111.557</v>
-      </c>
-      <c r="JD11" t="inlineStr"/>
-      <c r="JE11" t="inlineStr"/>
+        <v>75700.38499999999</v>
+      </c>
+      <c r="JD11" t="n">
+        <v>78627.298</v>
+      </c>
+      <c r="JE11" t="n">
+        <v>72236.33900000001</v>
+      </c>
+      <c r="JF11" t="n">
+        <v>69757.91499999999</v>
+      </c>
+      <c r="JG11" t="inlineStr"/>
+      <c r="JH11" t="inlineStr"/>
+      <c r="JI11" t="inlineStr"/>
+      <c r="JJ11" t="inlineStr"/>
+      <c r="JK11" t="inlineStr"/>
+      <c r="JL11" t="inlineStr"/>
+      <c r="JM11" t="inlineStr"/>
+      <c r="JN11" t="inlineStr"/>
+      <c r="JO11" t="inlineStr"/>
+      <c r="JP11" t="inlineStr"/>
+      <c r="JQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
